--- a/Report/Image/InterruptRoutineAddress.xlsx
+++ b/Report/Image/InterruptRoutineAddress.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Projects\Dual_core_Microcontroller\Image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Projects\Dual_core_Microcontroller\Report\Image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2C5A2BC-3ABD-4039-8F8F-F0913C20C523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6394FD-1601-4DE2-BBB5-41A9B97B7BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF8CC9C8-7238-44F2-A108-E2717A37B9C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Vector Number</t>
   </si>
@@ -69,6 +69,27 @@
   </si>
   <si>
     <t>Main Program</t>
+  </si>
+  <si>
+    <t>Sense Encode[6]</t>
+  </si>
+  <si>
+    <t>Sense Encode[5]</t>
+  </si>
+  <si>
+    <t>Sense Description</t>
+  </si>
+  <si>
+    <t>Rising Edge</t>
+  </si>
+  <si>
+    <t>Falling Edge</t>
+  </si>
+  <si>
+    <t>Change Level</t>
+  </si>
+  <si>
+    <t>Reserved</t>
   </si>
 </sst>
 </file>
@@ -131,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -142,6 +163,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF420485-CC0E-48DF-BE35-059FB6C85E12}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,6 +491,9 @@
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -524,7 +551,63 @@
         <v>10</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Report/Image/InterruptRoutineAddress.xlsx
+++ b/Report/Image/InterruptRoutineAddress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Projects\Dual_core_Microcontroller\Report\Image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6394FD-1601-4DE2-BBB5-41A9B97B7BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398B5E45-A742-4B7E-B53F-7411AD37DCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BF8CC9C8-7238-44F2-A108-E2717A37B9C2}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{BF8CC9C8-7238-44F2-A108-E2717A37B9C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Vector Number</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>Reserved</t>
+  </si>
+  <si>
+    <t>Port Pin</t>
+  </si>
+  <si>
+    <t>PA2</t>
+  </si>
+  <si>
+    <t>Alternate Function</t>
+  </si>
+  <si>
+    <t>External Interrupt</t>
+  </si>
+  <si>
+    <t>PB1</t>
+  </si>
+  <si>
+    <t>Timer Limit Toggle Flag</t>
   </si>
 </sst>
 </file>
@@ -152,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -164,6 +182,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -480,18 +501,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF420485-CC0E-48DF-BE35-059FB6C85E12}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
     <col min="3" max="3" width="22.21875" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="37.77734375" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="21.6640625" customWidth="1"/>
   </cols>
@@ -606,6 +628,44 @@
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Report/Image/InterruptRoutineAddress.xlsx
+++ b/Report/Image/InterruptRoutineAddress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Projects\Dual_core_Microcontroller\Report\Image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398B5E45-A742-4B7E-B53F-7411AD37DCBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF66532B-B7F6-4877-B610-8595ECBD408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{BF8CC9C8-7238-44F2-A108-E2717A37B9C2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Vector Number</t>
   </si>
@@ -108,16 +108,103 @@
   </si>
   <si>
     <t>Timer Limit Toggle Flag</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>BAUD[7]</t>
+  </si>
+  <si>
+    <t>BAUD[6]</t>
+  </si>
+  <si>
+    <t>BAUD[5]</t>
+  </si>
+  <si>
+    <t>Descripion</t>
+  </si>
+  <si>
+    <t>Baudrate 4800</t>
+  </si>
+  <si>
+    <t>Baudrate 9600</t>
+  </si>
+  <si>
+    <t>Baudrate 19200</t>
+  </si>
+  <si>
+    <t>Baudrate 38400</t>
+  </si>
+  <si>
+    <t>Baudrate 14400</t>
+  </si>
+  <si>
+    <t>Baudrate 28800</t>
+  </si>
+  <si>
+    <t>Baudrate 57600</t>
+  </si>
+  <si>
+    <t>Baudrate 115200</t>
+  </si>
+  <si>
+    <t>STB[4]</t>
+  </si>
+  <si>
+    <t>1 Stop bit</t>
+  </si>
+  <si>
+    <t>2 Stop bits</t>
+  </si>
+  <si>
+    <t>PAR[2]</t>
+  </si>
+  <si>
+    <t>PAR[3]</t>
+  </si>
+  <si>
+    <t>Not Parity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odd Parity </t>
+  </si>
+  <si>
+    <t>Even Parity</t>
+  </si>
+  <si>
+    <t>DATA[1]</t>
+  </si>
+  <si>
+    <t>DATA[0]</t>
+  </si>
+  <si>
+    <t>5-bit data frame</t>
+  </si>
+  <si>
+    <t>6-bit data frame</t>
+  </si>
+  <si>
+    <t>7-bit data frame</t>
+  </si>
+  <si>
+    <t>8-bit data frame</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -501,17 +588,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF420485-CC0E-48DF-BE35-059FB6C85E12}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" customWidth="1"/>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.21875" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
     <col min="6" max="6" width="37.77734375" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" customWidth="1"/>
@@ -573,100 +661,361 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>0</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="A16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>0</v>
+      </c>
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="4">
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>0</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>0</v>
+      </c>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>0</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>0</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="4">
+        <v>0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>1</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C36" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="4">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="3">
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="4">
+        <v>0</v>
+      </c>
+      <c r="C42" s="4">
+        <v>1</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="3">
+        <v>1</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
